--- a/data/pca/factorExposure/factorExposure_2009-03-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-09.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01633095342640317</v>
+        <v>-0.01588873332761088</v>
       </c>
       <c r="C2">
-        <v>-0.002073150014020715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001483277007041444</v>
+      </c>
+      <c r="D2">
+        <v>-0.008297347072138087</v>
+      </c>
+      <c r="E2">
+        <v>0.01990475662715931</v>
+      </c>
+      <c r="F2">
+        <v>-0.005170504106151485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08188948375395902</v>
+        <v>-0.08538737002030408</v>
       </c>
       <c r="C4">
-        <v>-0.01976763663265831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01570963680914906</v>
+      </c>
+      <c r="D4">
+        <v>-0.08690272874885668</v>
+      </c>
+      <c r="E4">
+        <v>-0.05119606480108663</v>
+      </c>
+      <c r="F4">
+        <v>0.01344767788424268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.001224596120092976</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0001910628221073227</v>
+      </c>
+      <c r="D5">
+        <v>-0.001351736553346862</v>
+      </c>
+      <c r="E5">
+        <v>-0.00170905203124863</v>
+      </c>
+      <c r="F5">
+        <v>-0.003349450951347667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.163548530431618</v>
+        <v>-0.1683214424293337</v>
       </c>
       <c r="C6">
-        <v>-0.04023278125826679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03725787681198859</v>
+      </c>
+      <c r="D6">
+        <v>0.008914949153021323</v>
+      </c>
+      <c r="E6">
+        <v>-0.06132337558487568</v>
+      </c>
+      <c r="F6">
+        <v>0.002368691278384156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05409208338629172</v>
+        <v>-0.05876152985337029</v>
       </c>
       <c r="C7">
-        <v>-0.001531575257874033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.001250833554093554</v>
+      </c>
+      <c r="D7">
+        <v>-0.05501230873928191</v>
+      </c>
+      <c r="E7">
+        <v>-0.03261444633786081</v>
+      </c>
+      <c r="F7">
+        <v>0.05537410113267211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05770055929960738</v>
+        <v>-0.05398956778810457</v>
       </c>
       <c r="C8">
-        <v>0.009243944025301338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01095264193035263</v>
+      </c>
+      <c r="D8">
+        <v>-0.03577477833814346</v>
+      </c>
+      <c r="E8">
+        <v>0.02479123192343293</v>
+      </c>
+      <c r="F8">
+        <v>-0.01995999711692077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06274098510713778</v>
+        <v>-0.06630598648494548</v>
       </c>
       <c r="C9">
-        <v>-0.01505984831339547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01107423599612419</v>
+      </c>
+      <c r="D9">
+        <v>-0.09251881153992465</v>
+      </c>
+      <c r="E9">
+        <v>-0.06950893905777991</v>
+      </c>
+      <c r="F9">
+        <v>0.0198470531361683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09911000931204059</v>
+        <v>-0.09492237526558098</v>
       </c>
       <c r="C10">
-        <v>-0.02668779139259043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.02705399575277904</v>
+      </c>
+      <c r="D10">
+        <v>0.1501328473085065</v>
+      </c>
+      <c r="E10">
+        <v>0.09360437121777695</v>
+      </c>
+      <c r="F10">
+        <v>-0.004329031267239869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08270425837786234</v>
+        <v>-0.08064025103183053</v>
       </c>
       <c r="C11">
-        <v>-0.01669612240739946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.0118902110898794</v>
+      </c>
+      <c r="D11">
+        <v>-0.1323927298495068</v>
+      </c>
+      <c r="E11">
+        <v>-0.0336640217521291</v>
+      </c>
+      <c r="F11">
+        <v>-0.007083183442401437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08775636959170527</v>
+        <v>-0.08326706874572677</v>
       </c>
       <c r="C12">
-        <v>-0.01455896901574826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.009088074237540909</v>
+      </c>
+      <c r="D12">
+        <v>-0.1504728944416385</v>
+      </c>
+      <c r="E12">
+        <v>-0.03507542005871532</v>
+      </c>
+      <c r="F12">
+        <v>0.005443145363164491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04208817378644502</v>
+        <v>-0.04220241606884802</v>
       </c>
       <c r="C13">
-        <v>-0.007697220253057525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003697197837533336</v>
+      </c>
+      <c r="D13">
+        <v>-0.06356802009511577</v>
+      </c>
+      <c r="E13">
+        <v>-0.006427377858425371</v>
+      </c>
+      <c r="F13">
+        <v>0.01630427701757519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02027219600945329</v>
+        <v>-0.02266838567741925</v>
       </c>
       <c r="C14">
-        <v>-0.01518411004911927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01405394525419627</v>
+      </c>
+      <c r="D14">
+        <v>-0.04404743184139807</v>
+      </c>
+      <c r="E14">
+        <v>-0.0305326685620961</v>
+      </c>
+      <c r="F14">
+        <v>-0.0004133041616386989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0303181700945942</v>
+        <v>-0.03242404217272384</v>
       </c>
       <c r="C15">
-        <v>-0.007818724379073787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.006257816318014019</v>
+      </c>
+      <c r="D15">
+        <v>-0.052796582710339</v>
+      </c>
+      <c r="E15">
+        <v>-0.02532507190980871</v>
+      </c>
+      <c r="F15">
+        <v>0.01430555506063735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06352589291848887</v>
+        <v>-0.06349141584715483</v>
       </c>
       <c r="C16">
-        <v>-0.005111505517672681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0004435116931434196</v>
+      </c>
+      <c r="D16">
+        <v>-0.1427994848166918</v>
+      </c>
+      <c r="E16">
+        <v>-0.04514357144582967</v>
+      </c>
+      <c r="F16">
+        <v>-0.01343335740558325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.003023574638381676</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.001231952224182384</v>
+      </c>
+      <c r="D17">
+        <v>-0.003184367244978797</v>
+      </c>
+      <c r="E17">
+        <v>-7.508847804974395e-05</v>
+      </c>
+      <c r="F17">
+        <v>-0.007610686082746466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.03317351033097592</v>
+        <v>-0.0480702702351653</v>
       </c>
       <c r="C18">
-        <v>-0.0005003610775421921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.0009000199505248853</v>
+      </c>
+      <c r="D18">
+        <v>-0.03245019382271794</v>
+      </c>
+      <c r="E18">
+        <v>0.01505057700173568</v>
+      </c>
+      <c r="F18">
+        <v>-0.0003005239517510019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06070825602743834</v>
+        <v>-0.0602983186117699</v>
       </c>
       <c r="C20">
-        <v>-0.004974505614345577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.002197848714426543</v>
+      </c>
+      <c r="D20">
+        <v>-0.0956865470136576</v>
+      </c>
+      <c r="E20">
+        <v>-0.06313134290985212</v>
+      </c>
+      <c r="F20">
+        <v>-0.009402204554539549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04221665113017204</v>
+        <v>-0.0439555386563752</v>
       </c>
       <c r="C21">
-        <v>-0.01118104969312465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.00846660994675036</v>
+      </c>
+      <c r="D21">
+        <v>-0.05357494827580574</v>
+      </c>
+      <c r="E21">
+        <v>0.01390446108851528</v>
+      </c>
+      <c r="F21">
+        <v>0.005893089508597389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04671023447607655</v>
+        <v>-0.04468581458663583</v>
       </c>
       <c r="C22">
-        <v>-0.005552600179294808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.003058679795989494</v>
+      </c>
+      <c r="D22">
+        <v>-0.01943293412057562</v>
+      </c>
+      <c r="E22">
+        <v>0.04152032384621212</v>
+      </c>
+      <c r="F22">
+        <v>-0.1283676087827115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04671931475442567</v>
+        <v>-0.04469357254422112</v>
       </c>
       <c r="C23">
-        <v>-0.005555274334104257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.003061074397366502</v>
+      </c>
+      <c r="D23">
+        <v>-0.01942705655863589</v>
+      </c>
+      <c r="E23">
+        <v>0.04154405110830655</v>
+      </c>
+      <c r="F23">
+        <v>-0.1284073724370444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07037787775957374</v>
+        <v>-0.06958684799267388</v>
       </c>
       <c r="C24">
-        <v>-0.005871814405469218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.001583812265276906</v>
+      </c>
+      <c r="D24">
+        <v>-0.1332052656970726</v>
+      </c>
+      <c r="E24">
+        <v>-0.03917462472540612</v>
+      </c>
+      <c r="F24">
+        <v>0.00425558020965537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0769733378235007</v>
+        <v>-0.07497600814827798</v>
       </c>
       <c r="C25">
-        <v>-0.008948450892485546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.004705941637893925</v>
+      </c>
+      <c r="D25">
+        <v>-0.122768731219371</v>
+      </c>
+      <c r="E25">
+        <v>-0.02294398764100866</v>
+      </c>
+      <c r="F25">
+        <v>0.02058133566023513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05714118923785448</v>
+        <v>-0.06095586157216956</v>
       </c>
       <c r="C26">
-        <v>-0.01893951435953909</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.0161785097558876</v>
+      </c>
+      <c r="D26">
+        <v>-0.06605328596405491</v>
+      </c>
+      <c r="E26">
+        <v>-0.002439335494555479</v>
+      </c>
+      <c r="F26">
+        <v>-0.008269203570868782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1590877518024095</v>
+        <v>-0.1634417044200489</v>
       </c>
       <c r="C28">
-        <v>-0.0333473352523703</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.03506764470606386</v>
+      </c>
+      <c r="D28">
+        <v>0.2427496217805862</v>
+      </c>
+      <c r="E28">
+        <v>0.03056307146213644</v>
+      </c>
+      <c r="F28">
+        <v>0.04830448989259333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02545127994276732</v>
+        <v>-0.02756436800277093</v>
       </c>
       <c r="C29">
-        <v>-0.0100146794673324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.009400121680250034</v>
+      </c>
+      <c r="D29">
+        <v>-0.04149428079495156</v>
+      </c>
+      <c r="E29">
+        <v>0.004571876685516925</v>
+      </c>
+      <c r="F29">
+        <v>-0.02171696549655403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04465786606930463</v>
+        <v>-0.04563817958755127</v>
       </c>
       <c r="C30">
-        <v>-0.004582662583252308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.001282302670276683</v>
+      </c>
+      <c r="D30">
+        <v>-0.08596843500487598</v>
+      </c>
+      <c r="E30">
+        <v>-0.09136770850188973</v>
+      </c>
+      <c r="F30">
+        <v>0.06743790743784045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05251684246403188</v>
+        <v>-0.05225539195220427</v>
       </c>
       <c r="C31">
-        <v>-0.0200174994094663</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01759371010498552</v>
+      </c>
+      <c r="D31">
+        <v>-0.03771710456005065</v>
+      </c>
+      <c r="E31">
+        <v>-0.01140723704587349</v>
+      </c>
+      <c r="F31">
+        <v>-0.03181594944856142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04395860303392051</v>
+        <v>-0.04897156420370014</v>
       </c>
       <c r="C32">
-        <v>-0.001421267324415895</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001272829662447403</v>
+      </c>
+      <c r="D32">
+        <v>-0.03928875319040268</v>
+      </c>
+      <c r="E32">
+        <v>-0.01213231250674157</v>
+      </c>
+      <c r="F32">
+        <v>-0.02264835855060322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0817794554116843</v>
+        <v>-0.08443898660438326</v>
       </c>
       <c r="C33">
-        <v>-0.01329924870308142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.00813627583340191</v>
+      </c>
+      <c r="D33">
+        <v>-0.1171205273967705</v>
+      </c>
+      <c r="E33">
+        <v>-0.04847529435082301</v>
+      </c>
+      <c r="F33">
+        <v>-0.01155144131952833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.05918185933383464</v>
+        <v>-0.05915104380738928</v>
       </c>
       <c r="C34">
-        <v>-0.0142409019194589</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.009630475068702743</v>
+      </c>
+      <c r="D34">
+        <v>-0.1237441883794956</v>
+      </c>
+      <c r="E34">
+        <v>-0.04125195638576711</v>
+      </c>
+      <c r="F34">
+        <v>0.02563432684771359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02720400797813306</v>
+        <v>-0.02804417809134343</v>
       </c>
       <c r="C35">
-        <v>-0.005425479537822064</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.00454899060889066</v>
+      </c>
+      <c r="D35">
+        <v>-0.01688277264278013</v>
+      </c>
+      <c r="E35">
+        <v>-0.01068165157774627</v>
+      </c>
+      <c r="F35">
+        <v>-0.01845233721078004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02418574471550667</v>
+        <v>-0.02794210145358032</v>
       </c>
       <c r="C36">
-        <v>-0.009076913478447041</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007963267950157832</v>
+      </c>
+      <c r="D36">
+        <v>-0.05005012929059911</v>
+      </c>
+      <c r="E36">
+        <v>-0.03906362922458013</v>
+      </c>
+      <c r="F36">
+        <v>-0.01503929625423032</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.00341707608667885</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.0007731826899876608</v>
+      </c>
+      <c r="D37">
+        <v>-0.00419730158157691</v>
+      </c>
+      <c r="E37">
+        <v>0.001338632464098507</v>
+      </c>
+      <c r="F37">
+        <v>-0.000195906374072805</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.08909750880364921</v>
+        <v>-0.08319680231921167</v>
       </c>
       <c r="C39">
-        <v>-0.01909222634390107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01378819782153316</v>
+      </c>
+      <c r="D39">
+        <v>-0.1552249382285127</v>
+      </c>
+      <c r="E39">
+        <v>-0.02326973299356591</v>
+      </c>
+      <c r="F39">
+        <v>-0.007580104195345281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04375796799596329</v>
+        <v>-0.0492253942696232</v>
       </c>
       <c r="C40">
-        <v>-0.01268024591034359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01073776820263236</v>
+      </c>
+      <c r="D40">
+        <v>-0.05458404190657387</v>
+      </c>
+      <c r="E40">
+        <v>0.01656997095057896</v>
+      </c>
+      <c r="F40">
+        <v>0.002323044161752593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02781173819578633</v>
+        <v>-0.02948010191071953</v>
       </c>
       <c r="C41">
-        <v>-0.008918694707487575</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008131978225371584</v>
+      </c>
+      <c r="D41">
+        <v>-0.02482647657499962</v>
+      </c>
+      <c r="E41">
+        <v>0.005404171758413714</v>
+      </c>
+      <c r="F41">
+        <v>-0.006105004768135067</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04255503190681879</v>
+        <v>-0.04119612765614077</v>
       </c>
       <c r="C43">
-        <v>-0.01004705877014966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.008828269571892049</v>
+      </c>
+      <c r="D43">
+        <v>-0.03574033861454621</v>
+      </c>
+      <c r="E43">
+        <v>0.003837326837674793</v>
+      </c>
+      <c r="F43">
+        <v>-0.02551273343545928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05424843057993973</v>
+        <v>-0.06322100569925676</v>
       </c>
       <c r="C44">
-        <v>-0.02045764786882321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.01788058264120139</v>
+      </c>
+      <c r="D44">
+        <v>-0.08759845168596765</v>
+      </c>
+      <c r="E44">
+        <v>-0.2265845214920901</v>
+      </c>
+      <c r="F44">
+        <v>0.07383978458292413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002342043561320235</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>4.564576861039555e-05</v>
+      </c>
+      <c r="D45">
+        <v>2.788769319883133e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0006040204918153839</v>
+      </c>
+      <c r="F45">
+        <v>0.0002764288830762488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02508374884350376</v>
+        <v>-0.02615331173293629</v>
       </c>
       <c r="C46">
-        <v>-0.005408064684317988</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.004426759622011622</v>
+      </c>
+      <c r="D46">
+        <v>-0.02760242664992786</v>
+      </c>
+      <c r="E46">
+        <v>0.002860173526712471</v>
+      </c>
+      <c r="F46">
+        <v>-0.03212202435688333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05349225119448864</v>
+        <v>-0.05263110835439472</v>
       </c>
       <c r="C47">
-        <v>-0.007743518459183687</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.005804216421966851</v>
+      </c>
+      <c r="D47">
+        <v>-0.0237673296684411</v>
+      </c>
+      <c r="E47">
+        <v>0.01229229948820281</v>
+      </c>
+      <c r="F47">
+        <v>-0.05505758990174245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04850274305271154</v>
+        <v>-0.0520376809682374</v>
       </c>
       <c r="C48">
-        <v>-0.00643556365937576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.003995871317429701</v>
+      </c>
+      <c r="D48">
+        <v>-0.06448809728687838</v>
+      </c>
+      <c r="E48">
+        <v>-0.007008034560426473</v>
+      </c>
+      <c r="F48">
+        <v>0.02114438764600659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.193924587264407</v>
+        <v>-0.196969523652166</v>
       </c>
       <c r="C49">
-        <v>-0.03088223981632008</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02625222526311282</v>
+      </c>
+      <c r="D49">
+        <v>0.008645748255965473</v>
+      </c>
+      <c r="E49">
+        <v>-0.04148697689049704</v>
+      </c>
+      <c r="F49">
+        <v>0.04099370981432705</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.05008696865631148</v>
+        <v>-0.0522699461389233</v>
       </c>
       <c r="C50">
-        <v>-0.01527806814431469</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01355716585095704</v>
+      </c>
+      <c r="D50">
+        <v>-0.03446721650841884</v>
+      </c>
+      <c r="E50">
+        <v>-0.02227168894513383</v>
+      </c>
+      <c r="F50">
+        <v>-0.0194432587785579</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1467950812492896</v>
+        <v>-0.1407349240535435</v>
       </c>
       <c r="C52">
-        <v>-0.02632264816998077</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.02202055061266344</v>
+      </c>
+      <c r="D52">
+        <v>-0.04491505040427331</v>
+      </c>
+      <c r="E52">
+        <v>-0.06052536158616361</v>
+      </c>
+      <c r="F52">
+        <v>-0.0224939580174777</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1776373928628918</v>
+        <v>-0.1693309956811488</v>
       </c>
       <c r="C53">
-        <v>-0.03210386049179743</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.02794947071458734</v>
+      </c>
+      <c r="D53">
+        <v>-0.01985065748680941</v>
+      </c>
+      <c r="E53">
+        <v>-0.1221473504114631</v>
+      </c>
+      <c r="F53">
+        <v>-0.01266493734569568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01326851457253148</v>
+        <v>-0.01632912283017966</v>
       </c>
       <c r="C54">
-        <v>-0.01156060265210527</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01090918395074575</v>
+      </c>
+      <c r="D54">
+        <v>-0.03456848723803128</v>
+      </c>
+      <c r="E54">
+        <v>-0.006357678305112991</v>
+      </c>
+      <c r="F54">
+        <v>-0.01482434683550185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1208089627451056</v>
+        <v>-0.1178488859111705</v>
       </c>
       <c r="C55">
-        <v>-0.02695192448255609</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.02373845982100575</v>
+      </c>
+      <c r="D55">
+        <v>-0.02202439301166122</v>
+      </c>
+      <c r="E55">
+        <v>-0.07181499195411722</v>
+      </c>
+      <c r="F55">
+        <v>-0.04569376131260422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.181036990229257</v>
+        <v>-0.174750072735408</v>
       </c>
       <c r="C56">
-        <v>-0.02945724171822309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.02585902011764469</v>
+      </c>
+      <c r="D56">
+        <v>-0.0028319636473955</v>
+      </c>
+      <c r="E56">
+        <v>-0.07574751138026585</v>
+      </c>
+      <c r="F56">
+        <v>-0.03606812475222623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0450966567231289</v>
+        <v>-0.04477073860010537</v>
       </c>
       <c r="C58">
-        <v>-0.004274942301078011</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0001877701202055984</v>
+      </c>
+      <c r="D58">
+        <v>-0.097782707173871</v>
+      </c>
+      <c r="E58">
+        <v>0.01599457811165712</v>
+      </c>
+      <c r="F58">
+        <v>-0.03792729839841683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1772473608254607</v>
+        <v>-0.1816550243318713</v>
       </c>
       <c r="C59">
-        <v>-0.03233910781143839</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.03364592266564238</v>
+      </c>
+      <c r="D59">
+        <v>0.203680034923227</v>
+      </c>
+      <c r="E59">
+        <v>0.08289523106651139</v>
+      </c>
+      <c r="F59">
+        <v>-0.005443582184547181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2188881450216453</v>
+        <v>-0.2148734599409037</v>
       </c>
       <c r="C60">
-        <v>-0.00994722382948931</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.004962964351466087</v>
+      </c>
+      <c r="D60">
+        <v>-0.02193962754211398</v>
+      </c>
+      <c r="E60">
+        <v>0.007347182751191499</v>
+      </c>
+      <c r="F60">
+        <v>0.005701631982945425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.06944136357990709</v>
+        <v>-0.06590384384363132</v>
       </c>
       <c r="C61">
-        <v>-0.01506134431137938</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01028475222667007</v>
+      </c>
+      <c r="D61">
+        <v>-0.1228263921607184</v>
+      </c>
+      <c r="E61">
+        <v>-0.01222445747791078</v>
+      </c>
+      <c r="F61">
+        <v>-0.01491034167381172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1701656523715498</v>
+        <v>-0.1663492059915731</v>
       </c>
       <c r="C62">
-        <v>-0.03153135460808128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.02769811651592325</v>
+      </c>
+      <c r="D62">
+        <v>-0.01323152546003038</v>
+      </c>
+      <c r="E62">
+        <v>-0.07073013338635643</v>
+      </c>
+      <c r="F62">
+        <v>-0.04600817647897404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04037892637466894</v>
+        <v>-0.04546381950996422</v>
       </c>
       <c r="C63">
-        <v>-0.00541321700552227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.003216956559405362</v>
+      </c>
+      <c r="D63">
+        <v>-0.07280631265995829</v>
+      </c>
+      <c r="E63">
+        <v>-0.01078405821674428</v>
+      </c>
+      <c r="F63">
+        <v>-0.02242035661942586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1127462618121795</v>
+        <v>-0.1104966537505875</v>
       </c>
       <c r="C64">
-        <v>-0.02062013220768334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.0165409959104535</v>
+      </c>
+      <c r="D64">
+        <v>-0.05423594553160608</v>
+      </c>
+      <c r="E64">
+        <v>-0.03042553061619103</v>
+      </c>
+      <c r="F64">
+        <v>-0.0006600801928464999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1522534733122287</v>
+        <v>-0.1571473902617455</v>
       </c>
       <c r="C65">
-        <v>-0.04591658240048212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04363351034528037</v>
+      </c>
+      <c r="D65">
+        <v>0.03973504341795785</v>
+      </c>
+      <c r="E65">
+        <v>-0.06494674319927567</v>
+      </c>
+      <c r="F65">
+        <v>-0.009255752683096941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1092945103572186</v>
+        <v>-0.1018758177093879</v>
       </c>
       <c r="C66">
-        <v>-0.01789348078631912</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01191098960511965</v>
+      </c>
+      <c r="D66">
+        <v>-0.1418229004511058</v>
+      </c>
+      <c r="E66">
+        <v>-0.02519996071220728</v>
+      </c>
+      <c r="F66">
+        <v>-0.006585435306413806</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05798401734016216</v>
+        <v>-0.04894051951526093</v>
       </c>
       <c r="C67">
-        <v>-0.006033622078305705</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.00343927395783218</v>
+      </c>
+      <c r="D67">
+        <v>-0.05812251057925369</v>
+      </c>
+      <c r="E67">
+        <v>0.05245637173308934</v>
+      </c>
+      <c r="F67">
+        <v>-0.06674499224588552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.128044034462067</v>
+        <v>-0.1333361264238465</v>
       </c>
       <c r="C68">
-        <v>-0.04044894644218597</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04373344191633961</v>
+      </c>
+      <c r="D68">
+        <v>0.2532022133607367</v>
+      </c>
+      <c r="E68">
+        <v>0.04055585227344741</v>
+      </c>
+      <c r="F68">
+        <v>0.08122882243385691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03918964207058138</v>
+        <v>-0.03882271488029778</v>
       </c>
       <c r="C69">
-        <v>-0.00374074208154279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.002555987319348802</v>
+      </c>
+      <c r="D69">
+        <v>-0.01285456809344989</v>
+      </c>
+      <c r="E69">
+        <v>-0.01539569468664041</v>
+      </c>
+      <c r="F69">
+        <v>-0.05275597040026755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.07184941167768993</v>
+        <v>-0.0725086845636122</v>
       </c>
       <c r="C70">
-        <v>0.02134011443620133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02324844372983222</v>
+      </c>
+      <c r="D70">
+        <v>-0.05154949420704909</v>
+      </c>
+      <c r="E70">
+        <v>0.3382780458171316</v>
+      </c>
+      <c r="F70">
+        <v>-0.1611416012551041</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.149138614094009</v>
+        <v>-0.1554177292949249</v>
       </c>
       <c r="C71">
-        <v>-0.04705181034020085</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04981307672087988</v>
+      </c>
+      <c r="D71">
+        <v>0.2607004018946301</v>
+      </c>
+      <c r="E71">
+        <v>0.04709022118374954</v>
+      </c>
+      <c r="F71">
+        <v>0.08998451364469373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1398695606401074</v>
+        <v>-0.146205839701471</v>
       </c>
       <c r="C72">
-        <v>-0.03557307021993707</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03360564469251436</v>
+      </c>
+      <c r="D72">
+        <v>-0.01307966960796232</v>
+      </c>
+      <c r="E72">
+        <v>-0.06516946302083916</v>
+      </c>
+      <c r="F72">
+        <v>-0.03658766829691869</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1934791287669625</v>
+        <v>-0.1998742149759643</v>
       </c>
       <c r="C73">
-        <v>-0.02414546712374266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01805085367567139</v>
+      </c>
+      <c r="D73">
+        <v>-0.03143144809780984</v>
+      </c>
+      <c r="E73">
+        <v>-0.07088403045160854</v>
+      </c>
+      <c r="F73">
+        <v>-0.05939344889503998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08919165469274265</v>
+        <v>-0.0888913623369981</v>
       </c>
       <c r="C74">
-        <v>-0.01792869380381044</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01552060461862442</v>
+      </c>
+      <c r="D74">
+        <v>-0.02579126945690041</v>
+      </c>
+      <c r="E74">
+        <v>-0.08270295273619874</v>
+      </c>
+      <c r="F74">
+        <v>-0.02075300990774354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1265126143973455</v>
+        <v>-0.1195212894345318</v>
       </c>
       <c r="C75">
-        <v>-0.03600015898938427</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03199123563576153</v>
+      </c>
+      <c r="D75">
+        <v>-0.03636673579863788</v>
+      </c>
+      <c r="E75">
+        <v>-0.06578963304021883</v>
+      </c>
+      <c r="F75">
+        <v>-0.0650934554852815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07460369891937553</v>
+        <v>-0.08873570859560388</v>
       </c>
       <c r="C77">
-        <v>-0.01431925732014854</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01141175060773647</v>
+      </c>
+      <c r="D77">
+        <v>-0.122137116356589</v>
+      </c>
+      <c r="E77">
+        <v>-0.05144751665358052</v>
+      </c>
+      <c r="F77">
+        <v>0.01628220355025025</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09610252785876101</v>
+        <v>-0.09879176950579743</v>
       </c>
       <c r="C78">
-        <v>-0.04417604530920038</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.04087292551216776</v>
+      </c>
+      <c r="D78">
+        <v>-0.1465746339597402</v>
+      </c>
+      <c r="E78">
+        <v>-0.05948402119991272</v>
+      </c>
+      <c r="F78">
+        <v>0.0263019684674961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1688358127695566</v>
+        <v>-0.1641233250678064</v>
       </c>
       <c r="C79">
-        <v>-0.03487406415977697</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.03045242639019869</v>
+      </c>
+      <c r="D79">
+        <v>-0.02794954156934512</v>
+      </c>
+      <c r="E79">
+        <v>-0.04234089659564581</v>
+      </c>
+      <c r="F79">
+        <v>-0.04281395810209965</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07908035840517209</v>
+        <v>-0.07583724049679778</v>
       </c>
       <c r="C80">
-        <v>-0.004938720486177455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.002009153863210931</v>
+      </c>
+      <c r="D80">
+        <v>-0.05287140234936616</v>
+      </c>
+      <c r="E80">
+        <v>0.02289445638868839</v>
+      </c>
+      <c r="F80">
+        <v>-0.04716450229280602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.114796146580625</v>
+        <v>-0.1089417535024175</v>
       </c>
       <c r="C81">
-        <v>-0.03738740619786841</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03505406345626721</v>
+      </c>
+      <c r="D81">
+        <v>-0.008907284179211529</v>
+      </c>
+      <c r="E81">
+        <v>-0.04988759433060442</v>
+      </c>
+      <c r="F81">
+        <v>-0.0672018031526173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1606601015925247</v>
+        <v>-0.1593666929735447</v>
       </c>
       <c r="C82">
-        <v>-0.03461385280345383</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.030774971126605</v>
+      </c>
+      <c r="D82">
+        <v>-0.0005462648878770489</v>
+      </c>
+      <c r="E82">
+        <v>-0.1048577520907968</v>
+      </c>
+      <c r="F82">
+        <v>-0.007173098038655888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05644986422823915</v>
+        <v>-0.05221729621092171</v>
       </c>
       <c r="C83">
-        <v>-0.006964720933340111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004451753756100291</v>
+      </c>
+      <c r="D83">
+        <v>-0.05470336831800846</v>
+      </c>
+      <c r="E83">
+        <v>0.01882721693780027</v>
+      </c>
+      <c r="F83">
+        <v>-0.01047571664587381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05156375992942488</v>
+        <v>-0.04903100921033492</v>
       </c>
       <c r="C84">
-        <v>-0.01336265918423329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01081656624854125</v>
+      </c>
+      <c r="D84">
+        <v>-0.07308708621064994</v>
+      </c>
+      <c r="E84">
+        <v>-0.006220792743466446</v>
+      </c>
+      <c r="F84">
+        <v>-0.003550291601275547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1401092329745776</v>
+        <v>-0.1348407208780974</v>
       </c>
       <c r="C85">
-        <v>-0.03807035156793848</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03441126247797995</v>
+      </c>
+      <c r="D85">
+        <v>-0.02240156468198326</v>
+      </c>
+      <c r="E85">
+        <v>-0.08761252155751724</v>
+      </c>
+      <c r="F85">
+        <v>-0.02418698984712501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0848547583430235</v>
+        <v>-0.08120591032401502</v>
       </c>
       <c r="C86">
-        <v>0.002010827944344658</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006555094389880429</v>
+      </c>
+      <c r="D86">
+        <v>-0.08986702041679999</v>
+      </c>
+      <c r="E86">
+        <v>0.5681504503521319</v>
+      </c>
+      <c r="F86">
+        <v>-0.5745998827112055</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08657458439347827</v>
+        <v>-0.08734100623514533</v>
       </c>
       <c r="C87">
-        <v>-0.02855828481943569</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02393298778155805</v>
+      </c>
+      <c r="D87">
+        <v>-0.08518647767054703</v>
+      </c>
+      <c r="E87">
+        <v>-0.005998904354088179</v>
+      </c>
+      <c r="F87">
+        <v>0.1151944350685255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06299322596668054</v>
+        <v>-0.06169451006538272</v>
       </c>
       <c r="C88">
-        <v>-0.007642220070482507</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.004962559729824908</v>
+      </c>
+      <c r="D88">
+        <v>-0.06671653693566409</v>
+      </c>
+      <c r="E88">
+        <v>-0.0184095984420486</v>
+      </c>
+      <c r="F88">
+        <v>-0.01502939647973504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1353875507643572</v>
+        <v>-0.1403168218675226</v>
       </c>
       <c r="C89">
-        <v>-0.02012959057746273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.02350799358291679</v>
+      </c>
+      <c r="D89">
+        <v>0.2279197771197683</v>
+      </c>
+      <c r="E89">
+        <v>0.04349261299361235</v>
+      </c>
+      <c r="F89">
+        <v>0.08858034871946303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1612851495691532</v>
+        <v>-0.1707843257515222</v>
       </c>
       <c r="C90">
-        <v>-0.04362342260719319</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.04700557214693327</v>
+      </c>
+      <c r="D90">
+        <v>0.2534350250206954</v>
+      </c>
+      <c r="E90">
+        <v>0.07246875534501759</v>
+      </c>
+      <c r="F90">
+        <v>0.1204020489116419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1265585996282954</v>
+        <v>-0.1214436763211501</v>
       </c>
       <c r="C91">
-        <v>-0.02869267786007714</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.0261500057898773</v>
+      </c>
+      <c r="D91">
+        <v>0.008742608160515388</v>
+      </c>
+      <c r="E91">
+        <v>-0.03600916216961372</v>
+      </c>
+      <c r="F91">
+        <v>-0.09779725777630856</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1599766521800015</v>
+        <v>-0.1624320212690835</v>
       </c>
       <c r="C92">
-        <v>-0.03423863493002912</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.0372706743103039</v>
+      </c>
+      <c r="D92">
+        <v>0.2859231433541958</v>
+      </c>
+      <c r="E92">
+        <v>0.0557516926002975</v>
+      </c>
+      <c r="F92">
+        <v>0.07751964078735174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1647960480195024</v>
+        <v>-0.1736046984236869</v>
       </c>
       <c r="C93">
-        <v>-0.03977183568757126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.04199404716742245</v>
+      </c>
+      <c r="D93">
+        <v>0.2440562103464237</v>
+      </c>
+      <c r="E93">
+        <v>0.03125352569043825</v>
+      </c>
+      <c r="F93">
+        <v>0.05924761399811071</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1231417870719571</v>
+        <v>-0.1171505530844116</v>
       </c>
       <c r="C94">
-        <v>-0.03097289492209671</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02686679296833157</v>
+      </c>
+      <c r="D94">
+        <v>-0.04796804793387367</v>
+      </c>
+      <c r="E94">
+        <v>-0.06275866167868281</v>
+      </c>
+      <c r="F94">
+        <v>-0.06396399065569713</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1242532198203126</v>
+        <v>-0.1268141882996186</v>
       </c>
       <c r="C95">
-        <v>-0.01366915686726099</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.008139467107857483</v>
+      </c>
+      <c r="D95">
+        <v>-0.1185523203013461</v>
+      </c>
+      <c r="E95">
+        <v>-0.01410698583712844</v>
+      </c>
+      <c r="F95">
+        <v>-0.03833211970291333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1775634648937096</v>
+        <v>-0.157016466352583</v>
       </c>
       <c r="C96">
-        <v>0.9783052993908604</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9808668817014617</v>
+      </c>
+      <c r="D96">
+        <v>0.05608731923253762</v>
+      </c>
+      <c r="E96">
+        <v>-0.06255321896074213</v>
+      </c>
+      <c r="F96">
+        <v>-0.01218164452005901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1913063370303254</v>
+        <v>-0.1940432521805403</v>
       </c>
       <c r="C97">
-        <v>-0.007269997253368408</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.002179441604332355</v>
+      </c>
+      <c r="D97">
+        <v>0.01682025960408408</v>
+      </c>
+      <c r="E97">
+        <v>0.1491971314635353</v>
+      </c>
+      <c r="F97">
+        <v>-0.0962823852196652</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.190774670724656</v>
+        <v>-0.1979763300880677</v>
       </c>
       <c r="C98">
-        <v>-0.01935641169052586</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.01359764836057788</v>
+      </c>
+      <c r="D98">
+        <v>-0.007185652655410954</v>
+      </c>
+      <c r="E98">
+        <v>0.1274029044298949</v>
+      </c>
+      <c r="F98">
+        <v>0.05945520763270724</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05599069714704143</v>
+        <v>-0.05565824812427126</v>
       </c>
       <c r="C99">
-        <v>0.0006907336991297001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.002903935238822744</v>
+      </c>
+      <c r="D99">
+        <v>-0.0590847554215525</v>
+      </c>
+      <c r="E99">
+        <v>-0.008975135341184774</v>
+      </c>
+      <c r="F99">
+        <v>-0.005722080839800304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1199830773615867</v>
+        <v>-0.1115461698731251</v>
       </c>
       <c r="C100">
-        <v>0.03328513779273348</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.04062349448337661</v>
+      </c>
+      <c r="D100">
+        <v>-0.3111231954790011</v>
+      </c>
+      <c r="E100">
+        <v>0.5387186630567566</v>
+      </c>
+      <c r="F100">
+        <v>0.6766631853991671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0253878158968594</v>
+        <v>-0.02756155983022093</v>
       </c>
       <c r="C101">
-        <v>-0.01002617344212794</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.00943535126262181</v>
+      </c>
+      <c r="D101">
+        <v>-0.04107056380449509</v>
+      </c>
+      <c r="E101">
+        <v>0.00695141131396966</v>
+      </c>
+      <c r="F101">
+        <v>-0.02288826347040697</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
